--- a/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_bank_money_center.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1575</v>
+        <v>0.1085</v>
       </c>
       <c r="E2">
-        <v>0.0902</v>
+        <v>0.0848</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,103 +603,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001455660429553987</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.000973702842592314</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>317.429</v>
+        <v>333.64</v>
       </c>
       <c r="L2">
-        <v>0.2192037842690422</v>
+        <v>0.2512538594773703</v>
       </c>
       <c r="M2">
-        <v>62.6156</v>
+        <v>76.65600000000001</v>
       </c>
       <c r="N2">
-        <v>0.03125622722507862</v>
+        <v>0.04589904796119993</v>
       </c>
       <c r="O2">
-        <v>0.1972585995608467</v>
+        <v>0.2297566239060065</v>
       </c>
       <c r="P2">
-        <v>61.9696</v>
+        <v>76.65600000000001</v>
       </c>
       <c r="Q2">
-        <v>0.03093375929715969</v>
+        <v>0.04589904796119993</v>
       </c>
       <c r="R2">
-        <v>0.1952234987981565</v>
+        <v>0.2297566239060065</v>
       </c>
       <c r="S2">
-        <v>0.6460000000000001</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.01031691782878388</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>959.6</v>
+        <v>1073</v>
       </c>
       <c r="V2">
-        <v>0.4790096341037289</v>
+        <v>0.6424764984132686</v>
       </c>
       <c r="W2">
-        <v>0.09421317180048976</v>
+        <v>0.1040372670807454</v>
       </c>
       <c r="X2">
-        <v>0.1449026160894838</v>
+        <v>0.1804891079089551</v>
       </c>
       <c r="Y2">
-        <v>-0.05068944428899409</v>
+        <v>-0.0764518408282097</v>
       </c>
       <c r="Z2">
-        <v>0.2112714187285444</v>
+        <v>0.1976599938494533</v>
       </c>
       <c r="AA2">
-        <v>0.0003164528001903547</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.07815616660373306</v>
+        <v>0.0932352870424166</v>
       </c>
       <c r="AC2">
-        <v>-0.07710991307563404</v>
+        <v>-0.0932352870424166</v>
       </c>
       <c r="AD2">
-        <v>4461.46</v>
+        <v>4748.028</v>
       </c>
       <c r="AE2">
-        <v>62.24029065981436</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4523.700290659815</v>
+        <v>4748.028</v>
       </c>
       <c r="AG2">
-        <v>3564.100290659815</v>
+        <v>3675.028</v>
       </c>
       <c r="AH2">
-        <v>0.6930749332328455</v>
+        <v>0.7397839369984519</v>
       </c>
       <c r="AI2">
-        <v>0.5805868014151858</v>
+        <v>0.5726429753716731</v>
       </c>
       <c r="AJ2">
-        <v>0.640173169628049</v>
+        <v>0.6875472392803316</v>
       </c>
       <c r="AK2">
-        <v>0.5216774208180843</v>
+        <v>0.5091174976047417</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>306.5031602088486</v>
-      </c>
-      <c r="AP2">
-        <v>244.8543755605808</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.244</v>
+        <v>0.133</v>
+      </c>
+      <c r="E3">
+        <v>0.0597</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -728,34 +725,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.004972738768666206</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.003067858998411006</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3.06</v>
+        <v>1.52</v>
       </c>
       <c r="L3">
-        <v>0.1410138248847926</v>
+        <v>0.07835051546391754</v>
       </c>
       <c r="M3">
-        <v>0.006</v>
+        <v>1.06</v>
       </c>
       <c r="N3">
-        <v>0.0001892744479495268</v>
+        <v>0.02226890756302521</v>
       </c>
       <c r="O3">
-        <v>0.00196078431372549</v>
+        <v>0.6973684210526316</v>
       </c>
       <c r="P3">
-        <v>0.006</v>
+        <v>1.06</v>
       </c>
       <c r="Q3">
-        <v>0.0001892744479495268</v>
+        <v>0.02226890756302521</v>
       </c>
       <c r="R3">
-        <v>0.00196078431372549</v>
+        <v>0.6973684210526316</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -764,67 +761,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>44.6</v>
+        <v>45.5</v>
       </c>
       <c r="V3">
-        <v>1.406940063091483</v>
+        <v>0.9558823529411764</v>
       </c>
       <c r="W3">
-        <v>0.04486803519061584</v>
+        <v>0.02303030303030303</v>
       </c>
       <c r="X3">
-        <v>0.06931159815082465</v>
+        <v>0.06700853009962335</v>
       </c>
       <c r="Y3">
-        <v>-0.02444356296020881</v>
+        <v>-0.04397822706932032</v>
       </c>
       <c r="Z3">
-        <v>0.897418904983378</v>
+        <v>0.7473035439137133</v>
       </c>
       <c r="AA3">
-        <v>0.002753154662997408</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06622761090878138</v>
+        <v>0.06697100454739242</v>
       </c>
       <c r="AC3">
-        <v>-0.06347445624578396</v>
+        <v>-0.06697100454739242</v>
       </c>
       <c r="AD3">
-        <v>4.56</v>
+        <v>0.328</v>
       </c>
       <c r="AE3">
-        <v>3.080457843599716</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>7.640457843599716</v>
+        <v>0.328</v>
       </c>
       <c r="AG3">
-        <v>-36.95954215640029</v>
+        <v>-45.172</v>
       </c>
       <c r="AH3">
-        <v>0.1942137499765458</v>
+        <v>0.006843598731430479</v>
       </c>
       <c r="AI3">
-        <v>0.1037535353165076</v>
+        <v>0.004937676883242007</v>
       </c>
       <c r="AJ3">
-        <v>7.027140587023255</v>
+        <v>-18.60461285008234</v>
       </c>
       <c r="AK3">
-        <v>-1.272691441555419</v>
+        <v>-2.158448012232416</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>6.298342541436464</v>
-      </c>
-      <c r="AP3">
-        <v>-51.0490913762435</v>
       </c>
     </row>
     <row r="4">
@@ -844,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.259</v>
+        <v>0.161</v>
       </c>
       <c r="E4">
-        <v>1.477</v>
+        <v>0.516</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -856,103 +847,97 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.008607113715528735</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.005824707505535431</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3.63</v>
+        <v>4.22</v>
       </c>
       <c r="L4">
-        <v>0.106140350877193</v>
+        <v>0.1294478527607362</v>
       </c>
       <c r="M4">
-        <v>1.7296</v>
+        <v>0.82</v>
       </c>
       <c r="N4">
-        <v>0.02178337531486146</v>
+        <v>0.01202346041055718</v>
       </c>
       <c r="O4">
-        <v>0.4764738292011019</v>
+        <v>0.1943127962085308</v>
       </c>
       <c r="P4">
-        <v>1.0836</v>
+        <v>0.82</v>
       </c>
       <c r="Q4">
-        <v>0.01364735516372796</v>
+        <v>0.01202346041055718</v>
       </c>
       <c r="R4">
-        <v>0.2985123966942149</v>
+        <v>0.1943127962085308</v>
       </c>
       <c r="S4">
-        <v>0.6460000000000001</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.3734967622571694</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>15.7</v>
+        <v>13.8</v>
       </c>
       <c r="V4">
-        <v>0.1977329974811083</v>
+        <v>0.2023460410557185</v>
       </c>
       <c r="W4">
-        <v>0.03503861003861004</v>
+        <v>0.04508547008547008</v>
       </c>
       <c r="X4">
-        <v>0.1121786968900765</v>
+        <v>0.1312873278232489</v>
       </c>
       <c r="Y4">
-        <v>-0.07714008685146642</v>
+        <v>-0.08620185773777878</v>
       </c>
       <c r="Z4">
-        <v>0.1367763740399102</v>
+        <v>0.1594132029339853</v>
       </c>
       <c r="AA4">
-        <v>0.0007966823724501868</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.07572434164413233</v>
+        <v>0.08875919878057525</v>
       </c>
       <c r="AC4">
-        <v>-0.07492765927168214</v>
+        <v>-0.08875919878057525</v>
       </c>
       <c r="AD4">
-        <v>126.6</v>
+        <v>106.5</v>
       </c>
       <c r="AE4">
-        <v>3.243183554644586</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>129.8431835546446</v>
+        <v>106.5</v>
       </c>
       <c r="AG4">
-        <v>114.1431835546446</v>
+        <v>92.7</v>
       </c>
       <c r="AH4">
-        <v>0.6205372206102742</v>
+        <v>0.609616485403549</v>
       </c>
       <c r="AI4">
-        <v>0.5777402522336087</v>
+        <v>0.5207823960880196</v>
       </c>
       <c r="AJ4">
-        <v>0.5897556372602377</v>
+        <v>0.5761342448725917</v>
       </c>
       <c r="AK4">
-        <v>0.546026814238634</v>
+        <v>0.4861038280020976</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>134.2523860021209</v>
-      </c>
-      <c r="AP4">
-        <v>121.0426124651586</v>
       </c>
     </row>
     <row r="5">
@@ -963,7 +948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hatton National Bank PLC (COSE:HNB.N0000)</t>
+          <t>Sampath Bank PLC (COSE:SAMP.N0000)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -972,10 +957,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.152</v>
+        <v>0.0975</v>
       </c>
       <c r="E5">
-        <v>0.106</v>
+        <v>0.0951</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -984,34 +969,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.004428885380263069</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.003097884677231461</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>73.09999999999999</v>
+        <v>54.7</v>
       </c>
       <c r="L5">
-        <v>0.2045899804086202</v>
+        <v>0.2615973218555715</v>
       </c>
       <c r="M5">
-        <v>14.7</v>
+        <v>24.2</v>
       </c>
       <c r="N5">
-        <v>0.03231479446032095</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="O5">
-        <v>0.2010943912448701</v>
+        <v>0.4424131627056672</v>
       </c>
       <c r="P5">
-        <v>14.7</v>
+        <v>24.2</v>
       </c>
       <c r="Q5">
-        <v>0.03231479446032095</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="R5">
-        <v>0.2010943912448701</v>
+        <v>0.4424131627056672</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1020,67 +1005,61 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>281.1</v>
+        <v>121.4</v>
       </c>
       <c r="V5">
-        <v>0.6179380083534843</v>
+        <v>0.4362199065756378</v>
       </c>
       <c r="W5">
-        <v>0.09421317180048976</v>
+        <v>0.09366438356164385</v>
       </c>
       <c r="X5">
-        <v>0.115854557099998</v>
+        <v>0.1528900297696644</v>
       </c>
       <c r="Y5">
-        <v>-0.02164138529950826</v>
+        <v>-0.05922564620802055</v>
       </c>
       <c r="Z5">
-        <v>0.2730007118180617</v>
+        <v>0.1701244813278008</v>
       </c>
       <c r="AA5">
-        <v>0.0008457247220144551</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.07609119200264534</v>
+        <v>0.0911498598781162</v>
       </c>
       <c r="AC5">
-        <v>-0.07524546728063089</v>
+        <v>-0.0911498598781162</v>
       </c>
       <c r="AD5">
-        <v>789.3</v>
+        <v>580</v>
       </c>
       <c r="AE5">
-        <v>8.987796268160027</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>798.28779626816</v>
+        <v>580</v>
       </c>
       <c r="AG5">
-        <v>517.18779626816</v>
+        <v>458.6</v>
       </c>
       <c r="AH5">
-        <v>0.6370057214452323</v>
+        <v>0.6757543982290575</v>
       </c>
       <c r="AI5">
-        <v>0.4994956150536237</v>
+        <v>0.489451476793249</v>
       </c>
       <c r="AJ5">
-        <v>0.532038153604686</v>
+        <v>0.6223368163929976</v>
       </c>
       <c r="AK5">
-        <v>0.3926752626009908</v>
+        <v>0.4311771342610005</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>233.5207100591716</v>
-      </c>
-      <c r="AP5">
-        <v>153.0141409077397</v>
       </c>
     </row>
     <row r="6">
@@ -1091,7 +1070,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Commercial Bank of Ceylon PLC (COSE:COMB.N0000)</t>
+          <t>Seylan Bank PLC (COSE:SEYB.N0000)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1100,10 +1079,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.118</v>
+        <v>0.0596</v>
       </c>
       <c r="E6">
-        <v>0.0902</v>
+        <v>-0.0147</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1112,34 +1091,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.002083253033306157</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.00144915338740202</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>94.40000000000001</v>
+        <v>18.3</v>
       </c>
       <c r="L6">
-        <v>0.2959247648902821</v>
+        <v>0.1711880261927035</v>
       </c>
       <c r="M6">
-        <v>26.5</v>
+        <v>2.72</v>
       </c>
       <c r="N6">
-        <v>0.0496533633127225</v>
+        <v>0.02120031176929072</v>
       </c>
       <c r="O6">
-        <v>0.2807203389830508</v>
+        <v>0.1486338797814208</v>
       </c>
       <c r="P6">
-        <v>26.5</v>
+        <v>2.72</v>
       </c>
       <c r="Q6">
-        <v>0.0496533633127225</v>
+        <v>0.02120031176929072</v>
       </c>
       <c r="R6">
-        <v>0.2807203389830508</v>
+        <v>0.1486338797814208</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1148,67 +1127,61 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>270.5</v>
+        <v>152.8</v>
       </c>
       <c r="V6">
-        <v>0.5068390481543938</v>
+        <v>1.190958690568979</v>
       </c>
       <c r="W6">
-        <v>0.1325098259404829</v>
+        <v>0.08303085299455536</v>
       </c>
       <c r="X6">
-        <v>0.1115170874140411</v>
+        <v>0.1686199191482333</v>
       </c>
       <c r="Y6">
-        <v>0.02099273852644178</v>
+        <v>-0.08558906615367796</v>
       </c>
       <c r="Z6">
-        <v>0.2226911517046666</v>
+        <v>0.2238743455497382</v>
       </c>
       <c r="AA6">
-        <v>0.0003227136368372747</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.07565474921632945</v>
+        <v>0.09243692058147096</v>
       </c>
       <c r="AC6">
-        <v>-0.07533203557949217</v>
+        <v>-0.09243692058147096</v>
       </c>
       <c r="AD6">
-        <v>835.4</v>
+        <v>316.2</v>
       </c>
       <c r="AE6">
-        <v>25.87721141187668</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>861.2772114118767</v>
+        <v>316.2</v>
       </c>
       <c r="AG6">
-        <v>590.7772114118767</v>
+        <v>163.4</v>
       </c>
       <c r="AH6">
-        <v>0.6174131049353598</v>
+        <v>0.7113610798650168</v>
       </c>
       <c r="AI6">
-        <v>0.5430919904858824</v>
+        <v>0.5281443126774678</v>
       </c>
       <c r="AJ6">
-        <v>0.5253794433682704</v>
+        <v>0.5601645526225574</v>
       </c>
       <c r="AK6">
-        <v>0.4491314022216931</v>
+        <v>0.3664498766539582</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>143.0479452054795</v>
-      </c>
-      <c r="AP6">
-        <v>101.1604814061433</v>
       </c>
     </row>
     <row r="7">
@@ -1219,7 +1192,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sampath Bank PLC (COSE:SAMP.N0000)</t>
+          <t>Hatton National Bank PLC (COSE:HNB.N0000)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1228,10 +1201,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.178</v>
+        <v>0.0762</v>
       </c>
       <c r="E7">
-        <v>0.161</v>
+        <v>0.0693</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1246,28 +1219,28 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>57.9</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="L7">
-        <v>0.2312300319488818</v>
+        <v>0.2573623559539053</v>
       </c>
       <c r="M7">
-        <v>10.1</v>
+        <v>12</v>
       </c>
       <c r="N7">
-        <v>0.02957540263543192</v>
+        <v>0.03589590188453485</v>
       </c>
       <c r="O7">
-        <v>0.1744386873920553</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="P7">
-        <v>10.1</v>
+        <v>12</v>
       </c>
       <c r="Q7">
-        <v>0.02957540263543192</v>
+        <v>0.03589590188453485</v>
       </c>
       <c r="R7">
-        <v>0.1744386873920553</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1276,55 +1249,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="V7">
-        <v>0.2518301610541728</v>
+        <v>0.7059527370625187</v>
       </c>
       <c r="W7">
-        <v>0.1091011871113623</v>
+        <v>0.1040372670807454</v>
       </c>
       <c r="X7">
-        <v>0.1277216441631037</v>
+        <v>0.1795164928963504</v>
       </c>
       <c r="Y7">
-        <v>-0.01862045705174138</v>
+        <v>-0.07547922581560502</v>
       </c>
       <c r="Z7">
-        <v>0.205937988321408</v>
+        <v>0.243871975019516</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.07708489779480669</v>
+        <v>0.09317449018843005</v>
       </c>
       <c r="AC7">
-        <v>-0.07708489779480669</v>
+        <v>-0.09317449018843005</v>
       </c>
       <c r="AD7">
-        <v>731.1</v>
+        <v>912</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>731.1</v>
+        <v>912</v>
       </c>
       <c r="AG7">
-        <v>645.1</v>
+        <v>676</v>
       </c>
       <c r="AH7">
-        <v>0.6816147678538133</v>
+        <v>0.7317660274412261</v>
       </c>
       <c r="AI7">
-        <v>0.555927305908296</v>
+        <v>0.5161874575503735</v>
       </c>
       <c r="AJ7">
-        <v>0.653861747415366</v>
+        <v>0.6691081856874196</v>
       </c>
       <c r="AK7">
-        <v>0.5248555853876821</v>
+        <v>0.4415991638359028</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1350,10 +1323,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.202</v>
+        <v>0.141</v>
       </c>
       <c r="E8">
-        <v>0.493</v>
+        <v>0.173</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1362,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01097992037103069</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.008826994808083501</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>8.15</v>
+        <v>10.7</v>
       </c>
       <c r="L8">
-        <v>0.2073791348600509</v>
+        <v>0.2383073496659243</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1395,67 +1368,61 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>11.1</v>
+        <v>13.6</v>
       </c>
       <c r="V8">
-        <v>0.3557692307692308</v>
+        <v>0.4387096774193548</v>
       </c>
       <c r="W8">
-        <v>0.1172661870503597</v>
+        <v>0.158753709198813</v>
       </c>
       <c r="X8">
-        <v>0.1624062425159821</v>
+        <v>0.1804891079089551</v>
       </c>
       <c r="Y8">
-        <v>-0.0451400554656224</v>
+        <v>-0.02173539871014202</v>
       </c>
       <c r="Z8">
-        <v>0.2094967090195783</v>
+        <v>0.2944262295081966</v>
       </c>
       <c r="AA8">
-        <v>0.001849226362826398</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.07895913943846045</v>
+        <v>0.0932352870424166</v>
       </c>
       <c r="AC8">
-        <v>-0.07710991307563404</v>
+        <v>-0.0932352870424166</v>
       </c>
       <c r="AD8">
-        <v>96.2</v>
+        <v>85.3</v>
       </c>
       <c r="AE8">
-        <v>5.792445647092469</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>101.9924456470925</v>
+        <v>85.3</v>
       </c>
       <c r="AG8">
-        <v>90.89244564709247</v>
+        <v>71.7</v>
       </c>
       <c r="AH8">
-        <v>0.7657524805673461</v>
+        <v>0.7334479793637145</v>
       </c>
       <c r="AI8">
-        <v>0.6021074036535295</v>
+        <v>0.5191722458916616</v>
       </c>
       <c r="AJ8">
-        <v>0.7444559339061532</v>
+        <v>0.6981499513145083</v>
       </c>
       <c r="AK8">
-        <v>0.5742058332318273</v>
+        <v>0.475779694757797</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>60.50314465408805</v>
-      </c>
-      <c r="AP8">
-        <v>57.16506015540407</v>
       </c>
     </row>
     <row r="9">
@@ -1466,7 +1433,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nations Trust Bank PLC (COSE:NTB.N0000)</t>
+          <t>Commercial Bank of Ceylon PLC (COSE:COMB.N0000)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1475,10 +1442,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.109</v>
+        <v>0.0833</v>
       </c>
       <c r="E9">
-        <v>0.0565</v>
+        <v>0.0745</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1487,100 +1454,97 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.002186912114524318</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.001356626837145594</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>18.3</v>
+        <v>91.5</v>
       </c>
       <c r="L9">
-        <v>0.1817279046673287</v>
+        <v>0.3129274965800274</v>
       </c>
       <c r="M9">
-        <v>-0</v>
+        <v>25</v>
       </c>
       <c r="N9">
-        <v>-0</v>
+        <v>0.05509034817100044</v>
       </c>
       <c r="O9">
-        <v>-0</v>
+        <v>0.273224043715847</v>
       </c>
       <c r="P9">
-        <v>-0</v>
+        <v>25</v>
       </c>
       <c r="Q9">
-        <v>-0</v>
+        <v>0.05509034817100044</v>
       </c>
       <c r="R9">
-        <v>-0</v>
+        <v>0.273224043715847</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
       <c r="U9">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="V9">
-        <v>0.3354632587859425</v>
+        <v>0.5288673424416043</v>
       </c>
       <c r="W9">
-        <v>0.1126847290640394</v>
+        <v>0.1277576096062552</v>
       </c>
       <c r="X9">
-        <v>0.1449026160894838</v>
+        <v>0.190558237512324</v>
       </c>
       <c r="Y9">
-        <v>-0.03221788702544444</v>
+        <v>-0.06280062790606877</v>
       </c>
       <c r="Z9">
-        <v>0.2332644405415022</v>
+        <v>0.2282413550854734</v>
       </c>
       <c r="AA9">
-        <v>0.0003164528001903547</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.07815616660373306</v>
+        <v>0.0938226208157376</v>
       </c>
       <c r="AC9">
-        <v>-0.07783971380354271</v>
+        <v>-0.0938226208157376</v>
       </c>
       <c r="AD9">
-        <v>329.8</v>
+        <v>1359.2</v>
       </c>
       <c r="AE9">
-        <v>8.198889750337006</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>337.998889750337</v>
+        <v>1359.2</v>
       </c>
       <c r="AG9">
-        <v>295.998889750337</v>
+        <v>1119.2</v>
       </c>
       <c r="AH9">
-        <v>0.7297057424565883</v>
+        <v>0.7496966354109211</v>
       </c>
       <c r="AI9">
-        <v>0.6726360926255367</v>
+        <v>0.632892531197616</v>
       </c>
       <c r="AJ9">
-        <v>0.7027532525686108</v>
+        <v>0.7115066751430388</v>
       </c>
       <c r="AK9">
-        <v>0.6427787261567885</v>
+        <v>0.5867058083455652</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>177.3118279569892</v>
-      </c>
-      <c r="AP9">
-        <v>159.1391880378156</v>
       </c>
     </row>
     <row r="10">
@@ -1591,7 +1555,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>National Development Bank PLC (COSE:NDB.N0000)</t>
+          <t>Nations Trust Bank PLC (COSE:NTB.N0000)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1600,10 +1564,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.126</v>
+        <v>0.104</v>
       </c>
       <c r="E10">
-        <v>0.04679999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1618,28 +1582,28 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.7</v>
+        <v>23.1</v>
       </c>
       <c r="L10">
-        <v>0.2256365232660228</v>
+        <v>0.2338056680161943</v>
       </c>
       <c r="M10">
-        <v>1.45</v>
+        <v>3.52</v>
       </c>
       <c r="N10">
-        <v>0.01185609157808667</v>
+        <v>0.03713080168776371</v>
       </c>
       <c r="O10">
-        <v>0.05642023346303502</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="P10">
-        <v>1.45</v>
+        <v>3.52</v>
       </c>
       <c r="Q10">
-        <v>0.01185609157808667</v>
+        <v>0.03713080168776371</v>
       </c>
       <c r="R10">
-        <v>0.05642023346303502</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1648,55 +1612,55 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>56.3</v>
+        <v>43.4</v>
       </c>
       <c r="V10">
-        <v>0.4603434178250204</v>
+        <v>0.4578059071729958</v>
       </c>
       <c r="W10">
-        <v>0.1206006569685594</v>
+        <v>0.1404255319148936</v>
       </c>
       <c r="X10">
-        <v>0.1745741785160565</v>
+        <v>0.1936371265013348</v>
       </c>
       <c r="Y10">
-        <v>-0.05397352154749714</v>
+        <v>-0.05321159458644117</v>
       </c>
       <c r="Z10">
-        <v>0.1863852070037637</v>
+        <v>0.2184390891001547</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.07940185391471927</v>
+        <v>0.09398817921140064</v>
       </c>
       <c r="AC10">
-        <v>-0.07940185391471927</v>
+        <v>-0.09398817921140064</v>
       </c>
       <c r="AD10">
-        <v>448.2</v>
+        <v>291</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>448.2</v>
+        <v>291</v>
       </c>
       <c r="AG10">
-        <v>391.9</v>
+        <v>247.6</v>
       </c>
       <c r="AH10">
-        <v>0.7856266432953549</v>
+        <v>0.7542768273716951</v>
       </c>
       <c r="AI10">
-        <v>0.6597968496982188</v>
+        <v>0.6051154086088584</v>
       </c>
       <c r="AJ10">
-        <v>0.7621548035783743</v>
+        <v>0.7231308411214954</v>
       </c>
       <c r="AK10">
-        <v>0.6290529695024076</v>
+        <v>0.5659428571428571</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1722,10 +1686,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.163</v>
+        <v>0.128</v>
       </c>
       <c r="E11">
-        <v>-0.137</v>
+        <v>0.0158</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1740,82 +1704,85 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6889999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="L11">
-        <v>0.0271259842519685</v>
+        <v>0.1331360946745562</v>
       </c>
       <c r="M11">
-        <v>-0</v>
+        <v>0.616</v>
       </c>
       <c r="N11">
-        <v>-0</v>
+        <v>0.02153846153846154</v>
       </c>
       <c r="O11">
-        <v>-0</v>
+        <v>0.1368888888888889</v>
       </c>
       <c r="P11">
-        <v>-0</v>
+        <v>0.616</v>
       </c>
       <c r="Q11">
-        <v>-0</v>
+        <v>0.02153846153846154</v>
       </c>
       <c r="R11">
-        <v>-0</v>
+        <v>0.1368888888888889</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
       <c r="U11">
-        <v>41.2</v>
+        <v>52.5</v>
       </c>
       <c r="V11">
-        <v>2.080808080808081</v>
+        <v>1.835664335664336</v>
       </c>
       <c r="W11">
-        <v>0.01562358276643991</v>
+        <v>0.1092233009708738</v>
       </c>
       <c r="X11">
-        <v>0.2513399500278895</v>
+        <v>0.2507523164720358</v>
       </c>
       <c r="Y11">
-        <v>-0.2357163672614496</v>
+        <v>-0.141529015501162</v>
       </c>
       <c r="Z11">
-        <v>0.2651356993736951</v>
+        <v>0.2770491803278688</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.08106675479981681</v>
+        <v>0.09623910944715722</v>
       </c>
       <c r="AC11">
-        <v>-0.08106675479981681</v>
+        <v>-0.09623910944715722</v>
       </c>
       <c r="AD11">
-        <v>122</v>
+        <v>127.3</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>122</v>
+        <v>127.3</v>
       </c>
       <c r="AG11">
-        <v>80.8</v>
+        <v>74.8</v>
       </c>
       <c r="AH11">
-        <v>0.8603667136812411</v>
+        <v>0.8165490699166131</v>
       </c>
       <c r="AI11">
-        <v>0.7475490196078431</v>
+        <v>0.7427071178529755</v>
       </c>
       <c r="AJ11">
-        <v>0.8031809145129225</v>
+        <v>0.7234042553191489</v>
       </c>
       <c r="AK11">
-        <v>0.6622950819672131</v>
+        <v>0.6291000841042893</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1832,7 +1799,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Seylan Bank PLC (COSE:SEYB.N0000)</t>
+          <t>National Development Bank PLC (COSE:NDB.N0000)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1841,10 +1808,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.08449999999999999</v>
+        <v>0.113</v>
       </c>
       <c r="E12">
-        <v>0.00415</v>
+        <v>0.127</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1853,34 +1820,34 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-0.01046544944579626</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>-0.00774082381421827</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>17.1</v>
+        <v>30.9</v>
       </c>
       <c r="L12">
-        <v>0.15</v>
+        <v>0.2791327913279132</v>
       </c>
       <c r="M12">
-        <v>1.58</v>
+        <v>2.25</v>
       </c>
       <c r="N12">
-        <v>0.01442922374429224</v>
+        <v>0.02302968270214944</v>
       </c>
       <c r="O12">
-        <v>0.09239766081871345</v>
+        <v>0.07281553398058253</v>
       </c>
       <c r="P12">
-        <v>1.58</v>
+        <v>2.25</v>
       </c>
       <c r="Q12">
-        <v>0.01442922374429224</v>
+        <v>0.02302968270214944</v>
       </c>
       <c r="R12">
-        <v>0.09239766081871345</v>
+        <v>0.07281553398058253</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1889,67 +1856,61 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>83.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="V12">
-        <v>0.7634703196347031</v>
+        <v>0.7983623336745138</v>
       </c>
       <c r="W12">
-        <v>0.07613535173642032</v>
+        <v>0.1373333333333333</v>
       </c>
       <c r="X12">
-        <v>0.1595440273964575</v>
+        <v>0.2520779457627429</v>
       </c>
       <c r="Y12">
-        <v>-0.08340867566003714</v>
+        <v>-0.1147446124294096</v>
       </c>
       <c r="Z12">
-        <v>0.211479121523494</v>
+        <v>0.1794456151726374</v>
       </c>
       <c r="AA12">
-        <v>-0.001637022620099022</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.08420911181668117</v>
+        <v>0.09627788511657326</v>
       </c>
       <c r="AC12">
-        <v>-0.08584613443678019</v>
+        <v>-0.09627788511657326</v>
       </c>
       <c r="AD12">
-        <v>340.7</v>
+        <v>438</v>
       </c>
       <c r="AE12">
-        <v>7.060306184103871</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>347.7603061841039</v>
+        <v>438</v>
       </c>
       <c r="AG12">
-        <v>264.1603061841039</v>
+        <v>360</v>
       </c>
       <c r="AH12">
-        <v>0.7605302745086456</v>
+        <v>0.8176218032480865</v>
       </c>
       <c r="AI12">
-        <v>0.6050527540652942</v>
+        <v>0.6284074605451937</v>
       </c>
       <c r="AJ12">
-        <v>0.7069530849604108</v>
+        <v>0.7865414026655014</v>
       </c>
       <c r="AK12">
-        <v>0.5378291015338839</v>
+        <v>0.5815831987075929</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>1555.707762557078</v>
-      </c>
-      <c r="AP12">
-        <v>1206.211443763031</v>
       </c>
     </row>
     <row r="13">
@@ -1981,28 +1942,28 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.4</v>
+        <v>13.8</v>
       </c>
       <c r="L13">
-        <v>0.2132963988919667</v>
+        <v>0.2062780269058296</v>
       </c>
       <c r="M13">
-        <v>6.55</v>
+        <v>4.47</v>
       </c>
       <c r="N13">
-        <v>0.04250486696950032</v>
+        <v>0.04158139534883721</v>
       </c>
       <c r="O13">
-        <v>0.4253246753246753</v>
+        <v>0.3239130434782608</v>
       </c>
       <c r="P13">
-        <v>6.55</v>
+        <v>4.47</v>
       </c>
       <c r="Q13">
-        <v>0.04250486696950032</v>
+        <v>0.04158139534883721</v>
       </c>
       <c r="R13">
-        <v>0.4253246753246753</v>
+        <v>0.3239130434782608</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2011,55 +1972,55 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>27.5</v>
+        <v>76</v>
       </c>
       <c r="V13">
-        <v>0.1784555483452304</v>
+        <v>0.7069767441860465</v>
       </c>
       <c r="W13">
-        <v>0.05581732511779631</v>
+        <v>0.0518796992481203</v>
       </c>
       <c r="X13">
-        <v>0.1891108310226725</v>
+        <v>0.2714103003387241</v>
       </c>
       <c r="Y13">
-        <v>-0.1332935059048762</v>
+        <v>-0.2195306010906038</v>
       </c>
       <c r="Z13">
-        <v>0.09530396950272978</v>
+        <v>0.07643600284264238</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.09904616391727965</v>
+        <v>0.1392450342513074</v>
       </c>
       <c r="AC13">
-        <v>-0.09904616391727965</v>
+        <v>-0.1392450342513074</v>
       </c>
       <c r="AD13">
-        <v>637.6</v>
+        <v>532.2</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>637.6</v>
+        <v>532.2</v>
       </c>
       <c r="AG13">
-        <v>610.1</v>
+        <v>456.2</v>
       </c>
       <c r="AH13">
-        <v>0.8053555639762536</v>
+        <v>0.8319524777239331</v>
       </c>
       <c r="AI13">
-        <v>0.7046082440048623</v>
+        <v>0.6580118694362018</v>
       </c>
       <c r="AJ13">
-        <v>0.7983512169589113</v>
+        <v>0.8092957246762462</v>
       </c>
       <c r="AK13">
-        <v>0.6953498974242078</v>
+        <v>0.6225436681222708</v>
       </c>
       <c r="AL13">
         <v>0</v>
